--- a/transform\static\files\order.xlsx
+++ b/transform\static\files\order.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>주문자성명</t>
+          <t>주문자 성명</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
